--- a/data/AutoPytestExecl.xlsx
+++ b/data/AutoPytestExecl.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView windowWidth="23152" windowHeight="11175" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="ceshi"/>
+    <sheet name="ceshi" sheetId="1" r:id="rId1"/>
+    <sheet name="input_al" sheetId="3" r:id="rId2"/>
+    <sheet name="inseminationLog" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="31">
   <si>
     <t>API_EXEC</t>
   </si>
@@ -89,35 +91,314 @@
   </si>
   <si>
     <t>POST</t>
+  </si>
+  <si>
+    <t>Success</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /ezserver/api/fam/input_al</t>
+  </si>
+  <si>
+    <t>{"Content-Type": "application/json","authToken": "uta3e477faf502000"}</t>
+  </si>
+  <si>
+    <t>{
+ "daysInput": [{
+  "ovulationResultByUser": 0,
+  "ovulationResultByLH": 0,
+  "menstruationRecord": 10,
+  "impactTempFlag": 0,
+  "BBT": 0,
+  "cervicalMunusRecord": 0,
+  "timestamp": 1690862400,
+  "dayOfCycle": 0
+ }, {
+  "impactTempFlag": 0,
+  "ovulationResultByUser": 0,
+  "BBT": 0,
+  "timestamp": 1690948800,
+  "menstruationRecord": 10,
+  "dayOfCycle": 0,
+  "cervicalMunusRecord": 0,
+  "ovulationResultByLH": 0
+ }, {
+  "BBT": 0,
+  "timestamp": 1691035200,
+  "ovulationResultByLH": 0,
+  "impactTempFlag": 0,
+  "dayOfCycle": 0,
+  "ovulationResultByUser": 0,
+  "menstruationRecord": 10,
+  "cervicalMunusRecord": 0
+ }, {
+  "ovulationResultByUser": 0,
+  "ovulationResultByLH": 0,
+  "dayOfCycle": 0,
+  "impactTempFlag": 0,
+  "menstruationRecord": 10,
+  "cervicalMunusRecord": 0,
+  "timestamp": 1691121600,
+  "BBT": 0
+ }, {
+  "menstruationRecord": 10,
+  "ovulationResultByUser": 0,
+  "impactTempFlag": 0,
+  "cervicalMunusRecord": 0,
+  "BBT": 0,
+  "dayOfCycle": 0,
+  "timestamp": 1691208000,
+  "ovulationResultByLH": 0
+ }, {
+  "dayOfCycle": 0,
+  "menstruationRecord": 10,
+  "cervicalMunusRecord": 0,
+  "impactTempFlag": 0,
+  "ovulationResultByUser": 0,
+  "BBT": 0,
+  "timestamp": 1693540800,
+  "ovulationResultByLH": 0
+ }, {
+  "BBT": 0,
+  "menstruationRecord": 10,
+  "impactTempFlag": 0,
+  "dayOfCycle": 0,
+  "cervicalMunusRecord": 0,
+  "ovulationResultByUser": 0,
+  "timestamp": 1693627200,
+  "ovulationResultByLH": 0
+ }, {
+  "ovulationResultByUser": 0,
+  "BBT": 0,
+  "ovulationResultByLH": 0,
+  "impactTempFlag": 0,
+  "menstruationRecord": 10,
+  "timestamp": 1693713600,
+  "dayOfCycle": 0,
+  "cervicalMunusRecord": 0
+ }, {
+  "cervicalMunusRecord": 0,
+  "timestamp": 1693800000,
+  "ovulationResultByLH": 0,
+  "impactTempFlag": 0,
+  "ovulationResultByUser": 0,
+  "dayOfCycle": 0,
+  "BBT": 0,
+  "menstruationRecord": 10
+ }, {
+  "impactTempFlag": 0,
+  "ovulationResultByUser": 0,
+  "timestamp": 1693886400,
+  "dayOfCycle": 0,
+  "menstruationRecord": 10,
+  "BBT": 0,
+  "ovulationResultByLH": 0,
+  "cervicalMunusRecord": 0
+ }, {
+  "cervicalMunusRecord": 0,
+  "menstruationRecord": 0,
+  "timestamp": 1696651200,
+  "ovulationResultByLH": 0,
+  "ovulationResultByUser": 0,
+  "BBT": 35.880000000000003,
+  "dayOfCycle": 0,
+  "impactTempFlag": 0
+ }],
+ "debug": 0,
+ "userData": {
+  "userAverageLuteumLength": 14,
+  "userCycleLengthError": 4,
+  "userCycleRegularity": 1,
+  "userAverageMenstruationLength": 5,
+  "userAverageCycleLength": 28
+ },
+ "param": {
+  "version": 1
+ }
+}</t>
+  </si>
+  <si>
+    <t>"code": 200</t>
+  </si>
+  <si>
+    <t>/core/insemination/log/date/data/get</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFffffff"/>
-      <name val="宋体"/>
-      <family val="2"/>
-    </font>
-    <font>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -127,10 +408,197 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF548235"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -154,48 +622,327 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -206,10 +953,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -247,71 +994,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -339,7 +1086,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -362,11 +1109,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -375,13 +1122,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -391,7 +1138,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -400,7 +1147,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -409,7 +1156,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -417,10 +1164,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -480,150 +1227,312 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" style="6" width="18.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="20.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="28.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="8.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="6" width="8.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="6" width="24.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="6" width="29.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="7" width="20.005" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="6" width="23.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="6" width="22.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="6" width="8.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="6" width="23.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="18.858407079646" style="3" customWidth="1"/>
+    <col min="2" max="2" width="20.0088495575221" style="4" customWidth="1"/>
+    <col min="3" max="3" width="28.2920353982301" style="3" customWidth="1"/>
+    <col min="4" max="5" width="8.85840707964602" style="3" customWidth="1"/>
+    <col min="6" max="6" width="24.716814159292" style="3" customWidth="1"/>
+    <col min="7" max="7" width="29.2920353982301" style="3" customWidth="1"/>
+    <col min="8" max="8" width="20.0088495575221" style="4" customWidth="1"/>
+    <col min="9" max="9" width="23.2920353982301" style="3" customWidth="1"/>
+    <col min="10" max="10" width="22.5752212389381" style="3" customWidth="1"/>
+    <col min="11" max="11" width="8.85840707964602" style="3" customWidth="1"/>
+    <col min="12" max="12" width="23.1504424778761" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="33" customFormat="1" s="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="3" customFormat="1" ht="33" customHeight="1" spans="1:12">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="40.5" customFormat="1" s="1">
-      <c r="A2" s="4" t="s">
+    <row r="2" s="3" customFormat="1" ht="40.5" customHeight="1" spans="1:12">
+      <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="6">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="6">
         <v>123</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="40.5" customFormat="1" s="1">
-      <c r="A3" s="4" t="s">
+    <row r="3" s="3" customFormat="1" ht="40.5" customHeight="1" spans="1:12">
+      <c r="A3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="6">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="6">
         <v>123</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="5" t="s">
         <v>21</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:L3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5" outlineLevelRow="2"/>
+  <cols>
+    <col min="1" max="12" width="15.5398230088496" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="30" customHeight="1" spans="1:12">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" customFormat="1" ht="25" customHeight="1" spans="1:12">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" ht="25" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:L3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5" outlineLevelRow="2"/>
+  <cols>
+    <col min="1" max="12" width="15.5398230088496" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="30" customHeight="1" spans="1:12">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" ht="25" customHeight="1" spans="1:7">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" ht="25" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>